--- a/league_standings/Serie_A_standing.xlsx
+++ b/league_standings/Serie_A_standing.xlsx
@@ -555,16 +555,16 @@
         <v>2.22</v>
       </c>
       <c r="M2" t="n">
-        <v>59.1</v>
+        <v>59</v>
       </c>
       <c r="N2" t="n">
-        <v>28.3</v>
+        <v>28.7</v>
       </c>
       <c r="O2" t="n">
-        <v>30.8</v>
+        <v>30.3</v>
       </c>
       <c r="P2" t="n">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -669,16 +669,16 @@
         <v>1.84</v>
       </c>
       <c r="M4" t="n">
-        <v>43.5</v>
+        <v>43.7</v>
       </c>
       <c r="N4" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="O4" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="P4" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -1353,16 +1353,16 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="M16" t="n">
-        <v>36.5</v>
+        <v>36.9</v>
       </c>
       <c r="N16" t="n">
-        <v>48</v>
+        <v>47.9</v>
       </c>
       <c r="O16" t="n">
-        <v>-11.5</v>
+        <v>-11.1</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.36</v>
+        <v>-0.35</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1467,16 +1467,16 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="M18" t="n">
-        <v>29.7</v>
+        <v>29.9</v>
       </c>
       <c r="N18" t="n">
-        <v>50.1</v>
+        <v>50.2</v>
       </c>
       <c r="O18" t="n">
-        <v>-20.4</v>
+        <v>-20.3</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.64</v>
+        <v>-0.63</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1527,10 +1527,10 @@
         <v>28.9</v>
       </c>
       <c r="N19" t="n">
-        <v>48.2</v>
+        <v>48</v>
       </c>
       <c r="O19" t="n">
-        <v>-19.3</v>
+        <v>-19.2</v>
       </c>
       <c r="P19" t="n">
         <v>-0.6</v>
@@ -1638,13 +1638,13 @@
         <v>0.47</v>
       </c>
       <c r="M21" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="N21" t="n">
-        <v>45.1</v>
+        <v>45</v>
       </c>
       <c r="O21" t="n">
-        <v>-20.4</v>
+        <v>-20.5</v>
       </c>
       <c r="P21" t="n">
         <v>-0.64</v>
